--- a/DA/cap08-BasesDeDatos/IPT_ACRM_BD1_companies_150414.xlsx
+++ b/DA/cap08-BasesDeDatos/IPT_ACRM_BD1_companies_150414.xlsx
@@ -358,20 +358,20 @@
     <t>TB Activity Sector [Sector]</t>
   </si>
   <si>
+    <t>Terms of Payment</t>
+  </si>
+  <si>
+    <t>Auto desde SAP</t>
+  </si>
+  <si>
+    <t>Por adelantado, se generar'a una proforma</t>
+  </si>
+  <si>
+    <t>modificable</t>
+  </si>
+  <si>
     <t>Nivel de actividad de la compañía.
-4 Valores: Residential, Comertial/Industrial, Utility, Storage&amp;Diesel</t>
-  </si>
-  <si>
-    <t>Terms of Payment</t>
-  </si>
-  <si>
-    <t>Auto desde SAP</t>
-  </si>
-  <si>
-    <t>Por adelantado, se generar'a una proforma</t>
-  </si>
-  <si>
-    <t>modificable</t>
+4 Valores: Residential, Commercial/Industrial, Utility, Storage &amp; Diesel</t>
   </si>
 </sst>
 </file>
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1335,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1599,18 +1599,18 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
       <c r="D29" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="3" t="s">
         <v>59</v>
       </c>
